--- a/FPR2140-NGFW-K9.xlsx
+++ b/FPR2140-NGFW-K9.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Quang\Desktop\sp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nguyen Vinh Quang\Desktop\cisco_spec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2783CD8F-54D0-4F01-B468-AC6DECB8FF81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEFEB73F-8527-467A-B12F-EA65E5B3FAEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FPR2140-NGFW-K9" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
   <si>
     <t>Nguồn cung cấp</t>
   </si>
@@ -135,15 +135,6 @@
     <t>3.6 Gbps</t>
   </si>
   <si>
-    <t>20 Gbps</t>
-  </si>
-  <si>
-    <t>10 Gbps</t>
-  </si>
-  <si>
-    <t>2 Gbps</t>
-  </si>
-  <si>
     <t>12 x 10M/100M/1GBASE-T Ethernet interfaces (RJ- 45)
 4 x 10 Gigabit (SFP+) Ethernet interfaces</t>
   </si>
@@ -164,21 +155,6 @@
   </si>
   <si>
     <t>Số lượng VPN Peers tối đa</t>
-  </si>
-  <si>
-    <t>Thông lượng Stateful inspection firewall</t>
-  </si>
-  <si>
-    <t>Thông lượng Stateful inspection firewall (multiprotocol)</t>
-  </si>
-  <si>
-    <t>Số kết nối đồng thời</t>
-  </si>
-  <si>
-    <t>Số kết nối mới mỗi giây</t>
-  </si>
-  <si>
-    <t>Thông lượng IPsec VPN (450B UDP L2L test)</t>
   </si>
   <si>
     <t>1x 200 GB, 1 khe mở rộng</t>
@@ -15048,17 +15024,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="46.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="46.81640625" customWidth="1"/>
+    <col min="1" max="1" width="46.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -15066,7 +15042,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>13</v>
       </c>
@@ -15074,7 +15050,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>14</v>
       </c>
@@ -15082,7 +15058,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>15</v>
       </c>
@@ -15090,9 +15066,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>18</v>
@@ -15106,131 +15082,91 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B9" s="5">
         <v>10000</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="31" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" ht="91.2" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="B11" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="15.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>34</v>
+    <row r="13" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>5</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>17</v>
+      <c r="B13" s="5" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13" s="5">
-        <v>75000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="15.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="46.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="93" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="77.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="15.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="62" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="31" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
-        <v>27</v>
+    <row r="15" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>24</v>
       </c>
-      <c r="B20" s="5" t="s">
-        <v>38</v>
+      <c r="B15" s="5" t="s">
+        <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="46.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
+    <row r="16" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B21" s="5" t="s">
-        <v>39</v>
+      <c r="B16" s="5" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="15.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
+    <row r="17" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B17" s="5" t="s">
         <v>8</v>
       </c>
     </row>

--- a/FPR2140-NGFW-K9.xlsx
+++ b/FPR2140-NGFW-K9.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nguyen Vinh Quang\Desktop\cisco_spec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEFEB73F-8527-467A-B12F-EA65E5B3FAEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39631B47-89A9-449B-816E-40BB7B0F2EF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
   <si>
     <t>Nguồn cung cấp</t>
   </si>
@@ -102,9 +102,6 @@
     <t>Hỗ trợ các tính năng khác Cisco AMP for Networks</t>
   </si>
   <si>
-    <t>Cấu hình, ghi nhật ký, giám sát và báo cáo tập trung được thực hiện bởi Management Center hoặc trên đám mây với Cisco Defense Orchestrator</t>
-  </si>
-  <si>
     <t>FPR2140-NGFW-K9</t>
   </si>
   <si>
@@ -142,9 +139,6 @@
     <t>Có sẵn; cho phép phát hiện, chặn, theo dõi, phân tích và ngăn chặn phần mềm độc hại có mục tiêu và dai dẳng, giải quyết tình trạng tấn công liên tục cả trong và sau các cuộc tấn công</t>
   </si>
   <si>
-    <t>Giấy phép</t>
-  </si>
-  <si>
     <t>Số phiên kết nối mới mỗi giây với AVC</t>
   </si>
   <si>
@@ -160,12 +154,12 @@
     <t>1x 200 GB, 1 khe mở rộng</t>
   </si>
   <si>
-    <t>Cisco FPR2140 Threat Defense Threat, Malware and URL đăng ký 1 năm</t>
-  </si>
-  <si>
     <t>Nguồn đôi 400W AC
 100 to 240V AC
 50 to 60 Hz</t>
+  </si>
+  <si>
+    <t>Web UI, CLI</t>
   </si>
 </sst>
 </file>
@@ -15024,7 +15018,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
@@ -15036,7 +15030,7 @@
   <sheetData>
     <row r="1" spans="1:2" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>2</v>
@@ -15044,34 +15038,34 @@
     </row>
     <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15079,28 +15073,28 @@
         <v>9</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B9" s="5">
         <v>10000</v>
@@ -15111,7 +15105,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="91.2" x14ac:dyDescent="0.25">
@@ -15127,7 +15121,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
@@ -15135,38 +15129,30 @@
         <v>5</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B17" s="5" t="s">
         <v>8</v>
       </c>
     </row>
